--- a/data/pca/factorExposure/factorExposure_2012-07-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-04.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01731432070310744</v>
+        <v>-0.02213063075829333</v>
       </c>
       <c r="C2">
-        <v>0.02809115395902283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02433309227912236</v>
+      </c>
+      <c r="D2">
+        <v>0.005570039383993318</v>
+      </c>
+      <c r="E2">
+        <v>0.018851244765566</v>
+      </c>
+      <c r="F2">
+        <v>0.004399568763437598</v>
+      </c>
+      <c r="G2">
+        <v>0.01584185441238799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0681544608935104</v>
+        <v>-0.07560330670467962</v>
       </c>
       <c r="C4">
-        <v>0.06027169930851766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04076035439657774</v>
+      </c>
+      <c r="D4">
+        <v>0.06959952889844997</v>
+      </c>
+      <c r="E4">
+        <v>-0.003305821588134713</v>
+      </c>
+      <c r="F4">
+        <v>0.02874436905538533</v>
+      </c>
+      <c r="G4">
+        <v>-0.02127707969027056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09600321160406036</v>
+        <v>-0.1120098137980914</v>
       </c>
       <c r="C6">
-        <v>0.06862504828360505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04685332270358371</v>
+      </c>
+      <c r="D6">
+        <v>0.01156148804771031</v>
+      </c>
+      <c r="E6">
+        <v>0.00199692247693285</v>
+      </c>
+      <c r="F6">
+        <v>0.04161005112726474</v>
+      </c>
+      <c r="G6">
+        <v>0.01612563391379481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04413259230467001</v>
+        <v>-0.05368699379130944</v>
       </c>
       <c r="C7">
-        <v>0.03513468156603811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02635915031776245</v>
+      </c>
+      <c r="D7">
+        <v>0.03373565508310192</v>
+      </c>
+      <c r="E7">
+        <v>0.01991498233455052</v>
+      </c>
+      <c r="F7">
+        <v>0.03307692244815721</v>
+      </c>
+      <c r="G7">
+        <v>-0.03699403133353608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03211710651679935</v>
+        <v>-0.03432486682888362</v>
       </c>
       <c r="C8">
-        <v>0.02813975283360814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01818502322965948</v>
+      </c>
+      <c r="D8">
+        <v>0.0391499205629075</v>
+      </c>
+      <c r="E8">
+        <v>0.00532980723974865</v>
+      </c>
+      <c r="F8">
+        <v>0.04901629059797535</v>
+      </c>
+      <c r="G8">
+        <v>0.02282098606951876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06152193480857345</v>
+        <v>-0.07014111779607389</v>
       </c>
       <c r="C9">
-        <v>0.04699360389947742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.03037795177920277</v>
+      </c>
+      <c r="D9">
+        <v>0.06990354509922646</v>
+      </c>
+      <c r="E9">
+        <v>0.01344465276622365</v>
+      </c>
+      <c r="F9">
+        <v>0.03819515671342677</v>
+      </c>
+      <c r="G9">
+        <v>-0.00714396985526378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02948158994319163</v>
+        <v>-0.04119671739502772</v>
       </c>
       <c r="C10">
-        <v>0.03907166038238786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03911025251798476</v>
+      </c>
+      <c r="D10">
+        <v>-0.1853297637787831</v>
+      </c>
+      <c r="E10">
+        <v>0.04931249694959321</v>
+      </c>
+      <c r="F10">
+        <v>0.03673394232659396</v>
+      </c>
+      <c r="G10">
+        <v>-0.03002411285520362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06881673043779926</v>
+        <v>-0.07536514879768515</v>
       </c>
       <c r="C11">
-        <v>0.0542579192067026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03228915234706423</v>
+      </c>
+      <c r="D11">
+        <v>0.06820946787780822</v>
+      </c>
+      <c r="E11">
+        <v>-0.009022315114289846</v>
+      </c>
+      <c r="F11">
+        <v>0.03543663066557535</v>
+      </c>
+      <c r="G11">
+        <v>-0.03253904441820064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05204007335179705</v>
+        <v>-0.06007344045003343</v>
       </c>
       <c r="C12">
-        <v>0.05258804858363728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03616709292378167</v>
+      </c>
+      <c r="D12">
+        <v>0.05124107517105099</v>
+      </c>
+      <c r="E12">
+        <v>0.008434974936641124</v>
+      </c>
+      <c r="F12">
+        <v>0.02614120590065744</v>
+      </c>
+      <c r="G12">
+        <v>-0.03041458253762817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05818696637501197</v>
+        <v>-0.06453648167587063</v>
       </c>
       <c r="C13">
-        <v>0.05120169032122289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03154333659948556</v>
+      </c>
+      <c r="D13">
+        <v>0.05382535236039086</v>
+      </c>
+      <c r="E13">
+        <v>0.004494180941221886</v>
+      </c>
+      <c r="F13">
+        <v>0.01906749288300538</v>
+      </c>
+      <c r="G13">
+        <v>-0.01698961425800334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03311092434974247</v>
+        <v>-0.03859821624375472</v>
       </c>
       <c r="C14">
-        <v>0.02966464710117149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02255831941097484</v>
+      </c>
+      <c r="D14">
+        <v>0.008357742446315309</v>
+      </c>
+      <c r="E14">
+        <v>0.01253367536480186</v>
+      </c>
+      <c r="F14">
+        <v>0.01665180102386373</v>
+      </c>
+      <c r="G14">
+        <v>0.003246022798835044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03899713908917753</v>
+        <v>-0.040343834526356</v>
       </c>
       <c r="C15">
-        <v>0.01453752372133149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005054550560776199</v>
+      </c>
+      <c r="D15">
+        <v>0.01866819170139954</v>
+      </c>
+      <c r="E15">
+        <v>0.03898377439513968</v>
+      </c>
+      <c r="F15">
+        <v>0.001531975861301778</v>
+      </c>
+      <c r="G15">
+        <v>0.0184360209768179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05753492378896525</v>
+        <v>-0.06188309572683088</v>
       </c>
       <c r="C16">
-        <v>0.04546722715156684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02833666195748214</v>
+      </c>
+      <c r="D16">
+        <v>0.05995586916096256</v>
+      </c>
+      <c r="E16">
+        <v>-0.001467728434622092</v>
+      </c>
+      <c r="F16">
+        <v>0.03086068464278903</v>
+      </c>
+      <c r="G16">
+        <v>-0.01988306383766019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06185436486197939</v>
+        <v>-0.06144677691170714</v>
       </c>
       <c r="C20">
-        <v>0.03819182906258632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01903384223154734</v>
+      </c>
+      <c r="D20">
+        <v>0.04961569533362532</v>
+      </c>
+      <c r="E20">
+        <v>0.0174737341861729</v>
+      </c>
+      <c r="F20">
+        <v>0.02728230965667451</v>
+      </c>
+      <c r="G20">
+        <v>-0.02508835608192621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02796782138279963</v>
+        <v>-0.0231218785883162</v>
       </c>
       <c r="C21">
-        <v>-0.0003329899196629168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01043694082393743</v>
+      </c>
+      <c r="D21">
+        <v>0.03007787894616165</v>
+      </c>
+      <c r="E21">
+        <v>0.09376147662204595</v>
+      </c>
+      <c r="F21">
+        <v>-0.00258232452594072</v>
+      </c>
+      <c r="G21">
+        <v>0.01456685027491718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0667154363676441</v>
+        <v>-0.06500560010861296</v>
       </c>
       <c r="C22">
-        <v>0.07554560786553537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04675226044129172</v>
+      </c>
+      <c r="D22">
+        <v>0.1102163201837728</v>
+      </c>
+      <c r="E22">
+        <v>0.6134512035460924</v>
+      </c>
+      <c r="F22">
+        <v>-0.1336733982133766</v>
+      </c>
+      <c r="G22">
+        <v>0.002604549753458719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06747429063167615</v>
+        <v>-0.06572174962896214</v>
       </c>
       <c r="C23">
-        <v>0.07509087523132489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04620468008690953</v>
+      </c>
+      <c r="D23">
+        <v>0.1113489383317023</v>
+      </c>
+      <c r="E23">
+        <v>0.6126916870455211</v>
+      </c>
+      <c r="F23">
+        <v>-0.1334951764480063</v>
+      </c>
+      <c r="G23">
+        <v>0.004315232820633331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06404215475080755</v>
+        <v>-0.07256738334641245</v>
       </c>
       <c r="C24">
-        <v>0.05322488383193674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03377047694395756</v>
+      </c>
+      <c r="D24">
+        <v>0.06650605466921007</v>
+      </c>
+      <c r="E24">
+        <v>0.005938008547478747</v>
+      </c>
+      <c r="F24">
+        <v>0.04446691093556555</v>
+      </c>
+      <c r="G24">
+        <v>-0.01357177680148826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06432342564756627</v>
+        <v>-0.07050216019229688</v>
       </c>
       <c r="C25">
-        <v>0.05881733369470719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03898977051357747</v>
+      </c>
+      <c r="D25">
+        <v>0.06447603147248129</v>
+      </c>
+      <c r="E25">
+        <v>0.00689518432565873</v>
+      </c>
+      <c r="F25">
+        <v>0.03808398065366407</v>
+      </c>
+      <c r="G25">
+        <v>-0.01022741027830316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03920463008045664</v>
+        <v>-0.04011336709401682</v>
       </c>
       <c r="C26">
-        <v>0.01407022700866659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005680071394091328</v>
+      </c>
+      <c r="D26">
+        <v>0.01976987257512532</v>
+      </c>
+      <c r="E26">
+        <v>0.03821680101639031</v>
+      </c>
+      <c r="F26">
+        <v>0.02126312891719091</v>
+      </c>
+      <c r="G26">
+        <v>-0.02037941303108785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05265688407037255</v>
+        <v>-0.07440733370550949</v>
       </c>
       <c r="C28">
-        <v>0.07491529843823382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07563536601576676</v>
+      </c>
+      <c r="D28">
+        <v>-0.3243151998712293</v>
+      </c>
+      <c r="E28">
+        <v>0.04475727581568475</v>
+      </c>
+      <c r="F28">
+        <v>0.0505473148651184</v>
+      </c>
+      <c r="G28">
+        <v>0.0277792548792639</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03576974051750851</v>
+        <v>-0.0422926775186634</v>
       </c>
       <c r="C29">
-        <v>0.03333969271946197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02572325207626611</v>
+      </c>
+      <c r="D29">
+        <v>0.008779515964179722</v>
+      </c>
+      <c r="E29">
+        <v>0.03723719412023532</v>
+      </c>
+      <c r="F29">
+        <v>0.01148612153863049</v>
+      </c>
+      <c r="G29">
+        <v>-0.01131270911598714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1122385340138511</v>
+        <v>-0.1263225272900811</v>
       </c>
       <c r="C30">
-        <v>0.1002404516363174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06752949581388117</v>
+      </c>
+      <c r="D30">
+        <v>0.1051250311123456</v>
+      </c>
+      <c r="E30">
+        <v>0.03735130005766448</v>
+      </c>
+      <c r="F30">
+        <v>0.01632682051076102</v>
+      </c>
+      <c r="G30">
+        <v>0.006763288494263004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03762045466925751</v>
+        <v>-0.04304234100534859</v>
       </c>
       <c r="C31">
-        <v>0.02579662716308603</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01635694151385939</v>
+      </c>
+      <c r="D31">
+        <v>0.02926953343745516</v>
+      </c>
+      <c r="E31">
+        <v>0.01961022006121908</v>
+      </c>
+      <c r="F31">
+        <v>0.0155578720854546</v>
+      </c>
+      <c r="G31">
+        <v>-0.02118952223249834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03120291708568101</v>
+        <v>-0.03276586008474219</v>
       </c>
       <c r="C32">
-        <v>0.0284723448414678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.0180549256643238</v>
+      </c>
+      <c r="D32">
+        <v>0.01643070670402692</v>
+      </c>
+      <c r="E32">
+        <v>0.06039487076178848</v>
+      </c>
+      <c r="F32">
+        <v>-0.01341190305752182</v>
+      </c>
+      <c r="G32">
+        <v>0.00272360440638155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07569751895713134</v>
+        <v>-0.08806039595545781</v>
       </c>
       <c r="C33">
-        <v>0.05270564613732325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03429203381618064</v>
+      </c>
+      <c r="D33">
+        <v>0.06335475491456974</v>
+      </c>
+      <c r="E33">
+        <v>0.009604082547848948</v>
+      </c>
+      <c r="F33">
+        <v>0.007692058745934106</v>
+      </c>
+      <c r="G33">
+        <v>-0.03016787924802589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05103247873511881</v>
+        <v>-0.0563439648323892</v>
       </c>
       <c r="C34">
-        <v>0.03386108837506514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01943314526503898</v>
+      </c>
+      <c r="D34">
+        <v>0.05761413919491218</v>
+      </c>
+      <c r="E34">
+        <v>0.002668299880297908</v>
+      </c>
+      <c r="F34">
+        <v>0.02737365806270775</v>
+      </c>
+      <c r="G34">
+        <v>-0.01187782825325084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03683914939070334</v>
+        <v>-0.03937061960272702</v>
       </c>
       <c r="C35">
-        <v>0.01432594031918534</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.006368999383389105</v>
+      </c>
+      <c r="D35">
+        <v>0.009775760118531845</v>
+      </c>
+      <c r="E35">
+        <v>0.03061903587599817</v>
+      </c>
+      <c r="F35">
+        <v>-0.003984167767222329</v>
+      </c>
+      <c r="G35">
+        <v>-0.01314849053302124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01928758879575051</v>
+        <v>-0.02308297156462539</v>
       </c>
       <c r="C36">
-        <v>0.01604717556321102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01079602471675906</v>
+      </c>
+      <c r="D36">
+        <v>0.01866880024210732</v>
+      </c>
+      <c r="E36">
+        <v>0.03339312903705992</v>
+      </c>
+      <c r="F36">
+        <v>0.02124962508634602</v>
+      </c>
+      <c r="G36">
+        <v>-0.02000696661456594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03668689779344545</v>
+        <v>-0.04003142919247022</v>
       </c>
       <c r="C38">
-        <v>0.01290148022331352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.004173733918269221</v>
+      </c>
+      <c r="D38">
+        <v>0.01183448974392392</v>
+      </c>
+      <c r="E38">
+        <v>0.06012527776782682</v>
+      </c>
+      <c r="F38">
+        <v>-0.0189256494570822</v>
+      </c>
+      <c r="G38">
+        <v>0.0204309393244219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08637839203658829</v>
+        <v>-0.09931465763340111</v>
       </c>
       <c r="C39">
-        <v>0.08175483708602743</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05531850368747826</v>
+      </c>
+      <c r="D39">
+        <v>0.08614178444359441</v>
+      </c>
+      <c r="E39">
+        <v>-0.0205444059050616</v>
+      </c>
+      <c r="F39">
+        <v>0.02209590084782779</v>
+      </c>
+      <c r="G39">
+        <v>0.008866848307736317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06600951798451948</v>
+        <v>-0.07280055924790434</v>
       </c>
       <c r="C40">
-        <v>0.05819769969964614</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.0390153908478315</v>
+      </c>
+      <c r="D40">
+        <v>0.01166261750020644</v>
+      </c>
+      <c r="E40">
+        <v>0.02577344140811313</v>
+      </c>
+      <c r="F40">
+        <v>-0.04433480086026554</v>
+      </c>
+      <c r="G40">
+        <v>0.04583635098402982</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03951351707166192</v>
+        <v>-0.0429937994024692</v>
       </c>
       <c r="C41">
-        <v>0.0180661774615876</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008956249881697515</v>
+      </c>
+      <c r="D41">
+        <v>0.04143135605357861</v>
+      </c>
+      <c r="E41">
+        <v>0.008353752330044973</v>
+      </c>
+      <c r="F41">
+        <v>-0.008033436332238231</v>
+      </c>
+      <c r="G41">
+        <v>0.0001326072696906168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04093267929498622</v>
+        <v>-0.04947701353331359</v>
       </c>
       <c r="C43">
-        <v>0.03767038663052619</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02447990215035041</v>
+      </c>
+      <c r="D43">
+        <v>0.02773227458752525</v>
+      </c>
+      <c r="E43">
+        <v>0.01690137468925434</v>
+      </c>
+      <c r="F43">
+        <v>0.0133563965295943</v>
+      </c>
+      <c r="G43">
+        <v>-0.01636298443656339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08721943565511926</v>
+        <v>-0.08993494970116812</v>
       </c>
       <c r="C44">
-        <v>0.09381260336103173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06277506078427707</v>
+      </c>
+      <c r="D44">
+        <v>0.06176454743326459</v>
+      </c>
+      <c r="E44">
+        <v>0.09734902733869802</v>
+      </c>
+      <c r="F44">
+        <v>0.0651164666154449</v>
+      </c>
+      <c r="G44">
+        <v>-0.002389723395898607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02706920517283847</v>
+        <v>-0.02803764198688143</v>
       </c>
       <c r="C46">
-        <v>0.01960015685703936</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01221677930092405</v>
+      </c>
+      <c r="D46">
+        <v>0.03275903149093316</v>
+      </c>
+      <c r="E46">
+        <v>0.01544955132047816</v>
+      </c>
+      <c r="F46">
+        <v>0.01964631430146967</v>
+      </c>
+      <c r="G46">
+        <v>0.006971674614088675</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02927174600906132</v>
+        <v>-0.03244327488961216</v>
       </c>
       <c r="C47">
-        <v>0.02253367145264092</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01378080512136898</v>
+      </c>
+      <c r="D47">
+        <v>0.01771191600107389</v>
+      </c>
+      <c r="E47">
+        <v>0.05173198752029371</v>
+      </c>
+      <c r="F47">
+        <v>0.01448562342654148</v>
+      </c>
+      <c r="G47">
+        <v>-0.02908746089766964</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02778401856731003</v>
+        <v>-0.03192747842173636</v>
       </c>
       <c r="C48">
-        <v>0.02013924445934872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01232420125684141</v>
+      </c>
+      <c r="D48">
+        <v>0.02889370764046673</v>
+      </c>
+      <c r="E48">
+        <v>0.0429606043011688</v>
+      </c>
+      <c r="F48">
+        <v>0.01969694779668786</v>
+      </c>
+      <c r="G48">
+        <v>-0.01147357450810525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1528299832250669</v>
+        <v>-0.1758896595888319</v>
       </c>
       <c r="C49">
-        <v>0.0961618385803527</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05942245634140603</v>
+      </c>
+      <c r="D49">
+        <v>0.01001629271991918</v>
+      </c>
+      <c r="E49">
+        <v>-0.1287749169965796</v>
+      </c>
+      <c r="F49">
+        <v>0.01686798275218919</v>
+      </c>
+      <c r="G49">
+        <v>-0.06322161394071303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03191415903645162</v>
+        <v>-0.0399444593954869</v>
       </c>
       <c r="C50">
-        <v>0.02675663535378418</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02208990541873439</v>
+      </c>
+      <c r="D50">
+        <v>0.03867249027603483</v>
+      </c>
+      <c r="E50">
+        <v>0.04194074239028428</v>
+      </c>
+      <c r="F50">
+        <v>0.02914878247379945</v>
+      </c>
+      <c r="G50">
+        <v>-0.02174520366578897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02422548584611044</v>
+        <v>-0.02570049080311457</v>
       </c>
       <c r="C51">
-        <v>0.018629611102842</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.01152582008474707</v>
+      </c>
+      <c r="D51">
+        <v>0.0260736379055742</v>
+      </c>
+      <c r="E51">
+        <v>0.01423490509540879</v>
+      </c>
+      <c r="F51">
+        <v>0.006496936078725713</v>
+      </c>
+      <c r="G51">
+        <v>0.008516135036192397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1401626098375815</v>
+        <v>-0.1594200754273529</v>
       </c>
       <c r="C53">
-        <v>0.1045685987208529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.07120152158881206</v>
+      </c>
+      <c r="D53">
+        <v>0.02282083687893396</v>
+      </c>
+      <c r="E53">
+        <v>-0.03809455215933968</v>
+      </c>
+      <c r="F53">
+        <v>0.02557252770466958</v>
+      </c>
+      <c r="G53">
+        <v>-0.01725759974678122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05253550527640775</v>
+        <v>-0.05605507892296335</v>
       </c>
       <c r="C54">
-        <v>0.02730763628653174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01344815215778867</v>
+      </c>
+      <c r="D54">
+        <v>0.03632587049260478</v>
+      </c>
+      <c r="E54">
+        <v>0.04194619904188137</v>
+      </c>
+      <c r="F54">
+        <v>0.01347352842470632</v>
+      </c>
+      <c r="G54">
+        <v>-0.01337489467607151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09285693563555381</v>
+        <v>-0.100576340439587</v>
       </c>
       <c r="C55">
-        <v>0.06583351148296693</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04415432047719096</v>
+      </c>
+      <c r="D55">
+        <v>0.03247158107946449</v>
+      </c>
+      <c r="E55">
+        <v>0.006086430650166686</v>
+      </c>
+      <c r="F55">
+        <v>0.02792768536107106</v>
+      </c>
+      <c r="G55">
+        <v>-0.006644796022163877</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1352513316240604</v>
+        <v>-0.1574208122202201</v>
       </c>
       <c r="C56">
-        <v>0.1123049682815417</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07826755381318423</v>
+      </c>
+      <c r="D56">
+        <v>0.01680535695237987</v>
+      </c>
+      <c r="E56">
+        <v>-0.03949038256685622</v>
+      </c>
+      <c r="F56">
+        <v>0.05710131420923563</v>
+      </c>
+      <c r="G56">
+        <v>-0.02912687066008498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1157924510110462</v>
+        <v>-0.1071801581330681</v>
       </c>
       <c r="C58">
-        <v>0.03527770685028555</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.00137708637748799</v>
+      </c>
+      <c r="D58">
+        <v>0.05413234377449627</v>
+      </c>
+      <c r="E58">
+        <v>0.1773989878523588</v>
+      </c>
+      <c r="F58">
+        <v>0.05242571168909828</v>
+      </c>
+      <c r="G58">
+        <v>-0.05050319379306496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1061261435309768</v>
+        <v>-0.1469086045427476</v>
       </c>
       <c r="C59">
-        <v>0.0892339303439208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08596608088136708</v>
+      </c>
+      <c r="D59">
+        <v>-0.3507331251019614</v>
+      </c>
+      <c r="E59">
+        <v>0.0486987070226865</v>
+      </c>
+      <c r="F59">
+        <v>-0.02444769978194475</v>
+      </c>
+      <c r="G59">
+        <v>-0.01934761206649767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1812137989907653</v>
+        <v>-0.2127399266977603</v>
       </c>
       <c r="C60">
-        <v>0.1210692872213991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.08168116416938842</v>
+      </c>
+      <c r="D60">
+        <v>0.01446455993736263</v>
+      </c>
+      <c r="E60">
+        <v>-0.07174836004449044</v>
+      </c>
+      <c r="F60">
+        <v>0.03541607648245935</v>
+      </c>
+      <c r="G60">
+        <v>0.0338502364006294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07548105155695392</v>
+        <v>-0.08389664458804583</v>
       </c>
       <c r="C61">
-        <v>0.05953936127366032</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03913196321464997</v>
+      </c>
+      <c r="D61">
+        <v>0.06138454080188736</v>
+      </c>
+      <c r="E61">
+        <v>-0.01808427355123039</v>
+      </c>
+      <c r="F61">
+        <v>0.009810470209072985</v>
+      </c>
+      <c r="G61">
+        <v>-0.03096967463016702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1144235872964304</v>
+        <v>-0.1364858224364618</v>
       </c>
       <c r="C62">
-        <v>0.08367769676697649</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05981600823207386</v>
+      </c>
+      <c r="D62">
+        <v>0.02704544979511606</v>
+      </c>
+      <c r="E62">
+        <v>-0.05731881187882102</v>
+      </c>
+      <c r="F62">
+        <v>0.0204772600738033</v>
+      </c>
+      <c r="G62">
+        <v>0.02174429059903062</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04902308955745253</v>
+        <v>-0.05155863098484987</v>
       </c>
       <c r="C63">
-        <v>0.02995991710654745</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01852348016032583</v>
+      </c>
+      <c r="D63">
+        <v>0.02999790960311766</v>
+      </c>
+      <c r="E63">
+        <v>0.04866561824348775</v>
+      </c>
+      <c r="F63">
+        <v>0.01802284400526987</v>
+      </c>
+      <c r="G63">
+        <v>0.02266846226351227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1055678929763951</v>
+        <v>-0.1107153704321628</v>
       </c>
       <c r="C64">
-        <v>0.04932330291691049</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02582253044982035</v>
+      </c>
+      <c r="D64">
+        <v>0.04728455594687853</v>
+      </c>
+      <c r="E64">
+        <v>0.02839518981622155</v>
+      </c>
+      <c r="F64">
+        <v>0.05432363187348099</v>
+      </c>
+      <c r="G64">
+        <v>0.01737707138070472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1069616662617177</v>
+        <v>-0.1211182284738028</v>
       </c>
       <c r="C65">
-        <v>0.06859890709780776</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04586466865711486</v>
+      </c>
+      <c r="D65">
+        <v>0.01452684109435253</v>
+      </c>
+      <c r="E65">
+        <v>-0.001910913833883168</v>
+      </c>
+      <c r="F65">
+        <v>0.05669645034723961</v>
+      </c>
+      <c r="G65">
+        <v>0.03900946698848933</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1332587423875534</v>
+        <v>-0.1511317460213596</v>
       </c>
       <c r="C66">
-        <v>0.0924398792711494</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05821843775955481</v>
+      </c>
+      <c r="D66">
+        <v>0.1212468695646328</v>
+      </c>
+      <c r="E66">
+        <v>-0.06255028151121589</v>
+      </c>
+      <c r="F66">
+        <v>0.04375610978551677</v>
+      </c>
+      <c r="G66">
+        <v>-0.004053817148163728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06829753299424204</v>
+        <v>-0.0738421751147898</v>
       </c>
       <c r="C67">
-        <v>0.02575891046018812</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.009546755066858188</v>
+      </c>
+      <c r="D67">
+        <v>0.02509501245629094</v>
+      </c>
+      <c r="E67">
+        <v>0.02678165750116906</v>
+      </c>
+      <c r="F67">
+        <v>-0.001692688408715631</v>
+      </c>
+      <c r="G67">
+        <v>-0.00199246275677766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05336159407391881</v>
+        <v>-0.06867597747512337</v>
       </c>
       <c r="C68">
-        <v>0.04885461982138022</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04796247192735116</v>
+      </c>
+      <c r="D68">
+        <v>-0.265325836184394</v>
+      </c>
+      <c r="E68">
+        <v>0.05059811944320416</v>
+      </c>
+      <c r="F68">
+        <v>0.01169483401800365</v>
+      </c>
+      <c r="G68">
+        <v>-0.003997997490620413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0472116426925005</v>
+        <v>-0.050470994595915</v>
       </c>
       <c r="C69">
-        <v>0.02906166419947167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01328084494451192</v>
+      </c>
+      <c r="D69">
+        <v>0.03596132429729227</v>
+      </c>
+      <c r="E69">
+        <v>0.01780594034410242</v>
+      </c>
+      <c r="F69">
+        <v>0.002434030005536864</v>
+      </c>
+      <c r="G69">
+        <v>-0.01029775715121274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003522820573407691</v>
+        <v>-0.01359347378319781</v>
       </c>
       <c r="C70">
-        <v>-0.001803636535574778</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0009571525663171444</v>
+      </c>
+      <c r="D70">
+        <v>-0.005819536175787981</v>
+      </c>
+      <c r="E70">
+        <v>-0.02415773164284133</v>
+      </c>
+      <c r="F70">
+        <v>0.009928888375866612</v>
+      </c>
+      <c r="G70">
+        <v>-0.00626858808151248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05633813462383028</v>
+        <v>-0.07223440925036827</v>
       </c>
       <c r="C71">
-        <v>0.04961584574539856</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04805728999411159</v>
+      </c>
+      <c r="D71">
+        <v>-0.2992434902051462</v>
+      </c>
+      <c r="E71">
+        <v>0.05061796590610732</v>
+      </c>
+      <c r="F71">
+        <v>0.03256073918305084</v>
+      </c>
+      <c r="G71">
+        <v>-0.003749472864950433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1280370483205056</v>
+        <v>-0.1499684998108747</v>
       </c>
       <c r="C72">
-        <v>0.0801957252628034</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.05335415348898716</v>
+      </c>
+      <c r="D72">
+        <v>0.01342074302405628</v>
+      </c>
+      <c r="E72">
+        <v>-0.09591685551753042</v>
+      </c>
+      <c r="F72">
+        <v>-0.1581929747786388</v>
+      </c>
+      <c r="G72">
+        <v>0.1179061554428699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2412702330313009</v>
+        <v>-0.2675424796638624</v>
       </c>
       <c r="C73">
-        <v>0.1449303622072865</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.08995956533113318</v>
+      </c>
+      <c r="D73">
+        <v>0.06192907483062547</v>
+      </c>
+      <c r="E73">
+        <v>-0.1863451103798709</v>
+      </c>
+      <c r="F73">
+        <v>0.06960810611303202</v>
+      </c>
+      <c r="G73">
+        <v>-0.1539691051236881</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07562931503429345</v>
+        <v>-0.08860408819625637</v>
       </c>
       <c r="C74">
-        <v>0.08349346716830004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06338533572995235</v>
+      </c>
+      <c r="D74">
+        <v>0.03449157235286367</v>
+      </c>
+      <c r="E74">
+        <v>-0.00346865795240303</v>
+      </c>
+      <c r="F74">
+        <v>-0.003024532324135807</v>
+      </c>
+      <c r="G74">
+        <v>-0.0340774113117401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09431842462501405</v>
+        <v>-0.1067119610627924</v>
       </c>
       <c r="C75">
-        <v>0.07373118614277435</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04486257168732453</v>
+      </c>
+      <c r="D75">
+        <v>0.02012716030936711</v>
+      </c>
+      <c r="E75">
+        <v>0.00287936812229619</v>
+      </c>
+      <c r="F75">
+        <v>0.06750394872226317</v>
+      </c>
+      <c r="G75">
+        <v>-0.009947608871358232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1166493909910326</v>
+        <v>-0.1321409024071485</v>
       </c>
       <c r="C76">
-        <v>0.1020747622282606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0700545130384711</v>
+      </c>
+      <c r="D76">
+        <v>0.05622114340062919</v>
+      </c>
+      <c r="E76">
+        <v>0.006590266320885082</v>
+      </c>
+      <c r="F76">
+        <v>0.06890660541426823</v>
+      </c>
+      <c r="G76">
+        <v>-0.01413602306971318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09590204332417097</v>
+        <v>-0.1032095014362405</v>
       </c>
       <c r="C77">
-        <v>0.0709838320603423</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.03765386006885797</v>
+      </c>
+      <c r="D77">
+        <v>0.03950764406174322</v>
+      </c>
+      <c r="E77">
+        <v>-0.02624241622759833</v>
+      </c>
+      <c r="F77">
+        <v>0.2508141443359768</v>
+      </c>
+      <c r="G77">
+        <v>0.896566168766227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08295241171569243</v>
+        <v>-0.1015558151231719</v>
       </c>
       <c r="C78">
-        <v>0.04861786724253398</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03344454326739267</v>
+      </c>
+      <c r="D78">
+        <v>0.07461980727458224</v>
+      </c>
+      <c r="E78">
+        <v>0.04923675846717684</v>
+      </c>
+      <c r="F78">
+        <v>-0.0006121257924148182</v>
+      </c>
+      <c r="G78">
+        <v>0.02106590058005783</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1335889712757994</v>
+        <v>-0.1500749219296006</v>
       </c>
       <c r="C79">
-        <v>0.1040039559646694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06622180293170143</v>
+      </c>
+      <c r="D79">
+        <v>0.03100343971504307</v>
+      </c>
+      <c r="E79">
+        <v>-0.02572472064519444</v>
+      </c>
+      <c r="F79">
+        <v>0.03803613047964521</v>
+      </c>
+      <c r="G79">
+        <v>-0.01384723419719929</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04467071277861853</v>
+        <v>-0.04226294648585842</v>
       </c>
       <c r="C80">
-        <v>0.01985918592515135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006989814489576721</v>
+      </c>
+      <c r="D80">
+        <v>0.0251245289506321</v>
+      </c>
+      <c r="E80">
+        <v>-0.00119258156861861</v>
+      </c>
+      <c r="F80">
+        <v>-0.0204105407017272</v>
+      </c>
+      <c r="G80">
+        <v>-0.05165208879779603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1073082033517114</v>
+        <v>-0.1203031703139345</v>
       </c>
       <c r="C81">
-        <v>0.0829996060975785</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.05328228454256061</v>
+      </c>
+      <c r="D81">
+        <v>0.03707689650325484</v>
+      </c>
+      <c r="E81">
+        <v>-0.009205388976427555</v>
+      </c>
+      <c r="F81">
+        <v>0.03857127886558076</v>
+      </c>
+      <c r="G81">
+        <v>-0.05380282153769735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1127807801257548</v>
+        <v>-0.125149623299491</v>
       </c>
       <c r="C82">
-        <v>0.09518309754710946</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06166045232026351</v>
+      </c>
+      <c r="D82">
+        <v>0.03734698546580485</v>
+      </c>
+      <c r="E82">
+        <v>-0.02913984412712992</v>
+      </c>
+      <c r="F82">
+        <v>0.05506630105948184</v>
+      </c>
+      <c r="G82">
+        <v>-0.0583373569136292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07139959713468996</v>
+        <v>-0.07076874782398371</v>
       </c>
       <c r="C83">
-        <v>0.0175655379988916</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.004023158427323664</v>
+      </c>
+      <c r="D83">
+        <v>0.04289830211526988</v>
+      </c>
+      <c r="E83">
+        <v>0.006920774112848613</v>
+      </c>
+      <c r="F83">
+        <v>0.006336060168930599</v>
+      </c>
+      <c r="G83">
+        <v>-0.06272621501271319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02422199037398665</v>
+        <v>-0.03301621847093224</v>
       </c>
       <c r="C84">
-        <v>0.02017997780098732</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01960551631099787</v>
+      </c>
+      <c r="D84">
+        <v>0.01431157846938105</v>
+      </c>
+      <c r="E84">
+        <v>0.01413122557941689</v>
+      </c>
+      <c r="F84">
+        <v>-0.03238665720146744</v>
+      </c>
+      <c r="G84">
+        <v>-0.04371519645111559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1160232419964778</v>
+        <v>-0.118406297512209</v>
       </c>
       <c r="C85">
-        <v>0.08305986569402198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04699271477145089</v>
+      </c>
+      <c r="D85">
+        <v>0.03664055446813231</v>
+      </c>
+      <c r="E85">
+        <v>0.01058452304854138</v>
+      </c>
+      <c r="F85">
+        <v>0.08421186623139286</v>
+      </c>
+      <c r="G85">
+        <v>0.0003022601455457949</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04365362763859234</v>
+        <v>-0.04727735007165583</v>
       </c>
       <c r="C86">
-        <v>0.0267093650981002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01254871452073376</v>
+      </c>
+      <c r="D86">
+        <v>0.01460389583264329</v>
+      </c>
+      <c r="E86">
+        <v>0.04443345614724526</v>
+      </c>
+      <c r="F86">
+        <v>0.01744147125716292</v>
+      </c>
+      <c r="G86">
+        <v>-0.003673400408500531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1123833695583153</v>
+        <v>-0.1187045910989683</v>
       </c>
       <c r="C87">
-        <v>0.08337382050282788</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.0489172698080033</v>
+      </c>
+      <c r="D87">
+        <v>0.07329820198071155</v>
+      </c>
+      <c r="E87">
+        <v>0.01756801210097719</v>
+      </c>
+      <c r="F87">
+        <v>0.02654642439402293</v>
+      </c>
+      <c r="G87">
+        <v>0.09597655151432241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05280390361854138</v>
+        <v>-0.05706395396300563</v>
       </c>
       <c r="C88">
-        <v>0.04376444324884199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.0268835416732905</v>
+      </c>
+      <c r="D88">
+        <v>0.02632541616710238</v>
+      </c>
+      <c r="E88">
+        <v>0.02110554205188112</v>
+      </c>
+      <c r="F88">
+        <v>0.008798402157338188</v>
+      </c>
+      <c r="G88">
+        <v>0.00629081303336326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07316304655911537</v>
+        <v>-0.104382118341992</v>
       </c>
       <c r="C89">
-        <v>0.08067938369919009</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07863095470468701</v>
+      </c>
+      <c r="D89">
+        <v>-0.3258408270263768</v>
+      </c>
+      <c r="E89">
+        <v>0.08736994915476284</v>
+      </c>
+      <c r="F89">
+        <v>0.05460295003882351</v>
+      </c>
+      <c r="G89">
+        <v>-0.01071486460055811</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06811428818348877</v>
+        <v>-0.09003484781675682</v>
       </c>
       <c r="C90">
-        <v>0.07208928224932304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06855348370785955</v>
+      </c>
+      <c r="D90">
+        <v>-0.31108950663783</v>
+      </c>
+      <c r="E90">
+        <v>0.07044189921520319</v>
+      </c>
+      <c r="F90">
+        <v>-0.01555977821405298</v>
+      </c>
+      <c r="G90">
+        <v>-0.01670677443575008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07814374205236142</v>
+        <v>-0.08808146487121699</v>
       </c>
       <c r="C91">
-        <v>0.06567768152271598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.0430908496343653</v>
+      </c>
+      <c r="D91">
+        <v>0.02905994288729718</v>
+      </c>
+      <c r="E91">
+        <v>0.006652538762485849</v>
+      </c>
+      <c r="F91">
+        <v>0.01363654098175478</v>
+      </c>
+      <c r="G91">
+        <v>-0.0336818679824922</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08347454737434243</v>
+        <v>-0.1044983301522216</v>
       </c>
       <c r="C92">
-        <v>0.06738307768375637</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06286357327674186</v>
+      </c>
+      <c r="D92">
+        <v>-0.3292099939755145</v>
+      </c>
+      <c r="E92">
+        <v>0.03810586183609728</v>
+      </c>
+      <c r="F92">
+        <v>0.02461797809377759</v>
+      </c>
+      <c r="G92">
+        <v>0.01262825576071575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06056567886463599</v>
+        <v>-0.08497717010618716</v>
       </c>
       <c r="C93">
-        <v>0.06782762983918933</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.0671376080764356</v>
+      </c>
+      <c r="D93">
+        <v>-0.2990339566019174</v>
+      </c>
+      <c r="E93">
+        <v>0.04238393844954909</v>
+      </c>
+      <c r="F93">
+        <v>0.03414371742140677</v>
+      </c>
+      <c r="G93">
+        <v>0.01476049131588101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1233336698192684</v>
+        <v>-0.1271962303377732</v>
       </c>
       <c r="C94">
-        <v>0.07974380834536296</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03915966409423555</v>
+      </c>
+      <c r="D94">
+        <v>0.05850738574190191</v>
+      </c>
+      <c r="E94">
+        <v>-0.03111052304369054</v>
+      </c>
+      <c r="F94">
+        <v>0.04813999430999163</v>
+      </c>
+      <c r="G94">
+        <v>-0.03030225840775256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1133640797879022</v>
+        <v>-0.1200143682273654</v>
       </c>
       <c r="C95">
-        <v>0.05756765761910203</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02847777091718297</v>
+      </c>
+      <c r="D95">
+        <v>0.05693519469985849</v>
+      </c>
+      <c r="E95">
+        <v>-0.0155321110343425</v>
+      </c>
+      <c r="F95">
+        <v>0.04230132801475912</v>
+      </c>
+      <c r="G95">
+        <v>0.01110246154466962</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1880979274653287</v>
+        <v>-0.2217025114213601</v>
       </c>
       <c r="C97">
-        <v>0.07938829480942125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04442891060239457</v>
+      </c>
+      <c r="D97">
+        <v>-0.007210405998473231</v>
+      </c>
+      <c r="E97">
+        <v>-0.1680925910961888</v>
+      </c>
+      <c r="F97">
+        <v>-0.8856364490186397</v>
+      </c>
+      <c r="G97">
+        <v>0.196761026186102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2339225908007115</v>
+        <v>-0.2588994969435853</v>
       </c>
       <c r="C98">
-        <v>0.1245042261856646</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06487221619955541</v>
+      </c>
+      <c r="D98">
+        <v>0.03742598858150653</v>
+      </c>
+      <c r="E98">
+        <v>-0.1475819131332638</v>
+      </c>
+      <c r="F98">
+        <v>0.02168826976217534</v>
+      </c>
+      <c r="G98">
+        <v>-0.2476315868451784</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5750541835434998</v>
+        <v>-0.3790856760076853</v>
       </c>
       <c r="C99">
-        <v>-0.8084170426100858</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9149616935306245</v>
+      </c>
+      <c r="D99">
+        <v>-0.06927708201177873</v>
+      </c>
+      <c r="E99">
+        <v>0.04578154317426054</v>
+      </c>
+      <c r="F99">
+        <v>0.03850533960565287</v>
+      </c>
+      <c r="G99">
+        <v>0.000284160627775484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03597824631525814</v>
+        <v>-0.04245208457882278</v>
       </c>
       <c r="C101">
-        <v>0.03348472138379677</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02577691705233269</v>
+      </c>
+      <c r="D101">
+        <v>0.009473301383194931</v>
+      </c>
+      <c r="E101">
+        <v>0.03638063003354568</v>
+      </c>
+      <c r="F101">
+        <v>0.01091108231517243</v>
+      </c>
+      <c r="G101">
+        <v>-0.01182621524162811</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
